--- a/doc/ParseTable.xlsx
+++ b/doc/ParseTable.xlsx
@@ -4,11 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35560" windowHeight="31560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ParseTable" sheetId="1" r:id="rId1"/>
+    <sheet name="First" sheetId="2" r:id="rId2"/>
+    <sheet name="Follow" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_2014PascalGrammarSubset_SpecChange_Numbered_NullProdRemoved_LeftRecurRemoved_LeftFactored" localSheetId="1">First!$A$2:$L$74</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -18,12 +23,339 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="2014PascalGrammarSubset_SpecChange_Numbered_NullProdRemoved_LeftRecurRemoved_LeftFactored" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="ENTERPRISE:Users:kuxhausen:Desktop:compiler-front-end:doc:2014PascalGrammarSubset_SpecChange_Numbered_NullProdRemoved_LeftRecurRemoved_LeftFactored" space="1" consecutive="1">
+      <textFields count="10">
+        <textField type="text"/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="95">
+  <si>
+    <t>PROGRAM</t>
+  </si>
+  <si>
+    <t>IDENTIFIER_LIST</t>
+  </si>
+  <si>
+    <t>program</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>PROGRAM^</t>
+  </si>
+  <si>
+    <t>PROGRAM^^</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>-&gt;</t>
+  </si>
+  <si>
+    <t>DECLARATIONS</t>
+  </si>
+  <si>
+    <t>SUBPROGRAM_DECLARATIONS</t>
+  </si>
+  <si>
+    <t>COMPOUND_STATEMENT</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>IDENTIFIER_LIST`</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>DECLARATIONS`</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>STANDARD_TYPE</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>SUBPROGRAM_DECLARATION</t>
+  </si>
+  <si>
+    <t>SUBPROGRAM_DECLARATIONS`</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>SUBPROGRAM_HEAD</t>
+  </si>
+  <si>
+    <t>SUBPROGRAM_DECLARATION^</t>
+  </si>
+  <si>
+    <t>SUBPROGRAM_DECLARATION^^</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>procedure</t>
+  </si>
+  <si>
+    <t>SUBPROGRAM_HEAD^</t>
+  </si>
+  <si>
+    <t>ARGUMENTS</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>PARAMETER_LIST</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>PARAMETER_LIST`</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>begin</t>
+  </si>
+  <si>
+    <t>COMPOUND_STATEMENT^</t>
+  </si>
+  <si>
+    <t>OPTIONAL_STATEMENTS</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>STATEMENT_LIST</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>STATEMENT</t>
+  </si>
+  <si>
+    <t>STATEMENT_LIST`</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>VARIABLE</t>
+  </si>
+  <si>
+    <t>EXPRESSION</t>
+  </si>
+  <si>
+    <t>PROCEDURE_STATEMENT</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>STATEMENT^</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>VARIABLE^</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>PROCEDURE_STATEMENT^</t>
+  </si>
+  <si>
+    <t>EXPRESSION_LIST</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>EXPRESSION_LIST`</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>SIMPLE_EXPRESSION</t>
+  </si>
+  <si>
+    <t>EXPRESSION^</t>
+  </si>
+  <si>
+    <t>relop</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>TERM</t>
+  </si>
+  <si>
+    <t>SIGN</t>
+  </si>
+  <si>
+    <t>SIMPLE_EXPRESSION'</t>
+  </si>
+  <si>
+    <t>addop</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>FACTOR</t>
+  </si>
+  <si>
+    <t>TERM`</t>
+  </si>
+  <si>
+    <t>mulop</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>FACTOR^</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>nonTerminal</t>
+  </si>
+  <si>
+    <t>firsts</t>
+  </si>
+  <si>
+    <t>Subprods where firsts produced</t>
+  </si>
+  <si>
+    <t>Prod</t>
+  </si>
+  <si>
+    <t>Subprod</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -37,7 +369,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,19 +377,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2014PascalGrammarSubset_SpecChange_Numbered_NullProdRemoved_LeftRecurRemoved_LeftFactored" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,9 +735,1491 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="85" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s">
+        <v>66</v>
+      </c>
+      <c r="F51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" t="s">
+        <v>74</v>
+      </c>
+      <c r="F58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" t="s">
+        <v>79</v>
+      </c>
+      <c r="F62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" t="s">
+        <v>83</v>
+      </c>
+      <c r="F65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>81</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>81</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s">
+        <v>26</v>
+      </c>
+      <c r="F68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>81</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>81</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" t="s">
+        <v>86</v>
+      </c>
+      <c r="F70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>85</v>
+      </c>
+      <c r="D71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>85</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" t="s">
+        <v>88</v>
+      </c>
+      <c r="F73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" t="s">
+        <v>89</v>
+      </c>
+      <c r="F74">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>

--- a/doc/ParseTable.xlsx
+++ b/doc/ParseTable.xlsx
@@ -8,11 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="ParseTable" sheetId="1" r:id="rId1"/>
-    <sheet name="First" sheetId="2" r:id="rId2"/>
-    <sheet name="Follow" sheetId="3" r:id="rId3"/>
+    <sheet name="f&amp;F" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_2014PascalGrammarSubset_SpecChange_Numbered_NullProdRemoved_LeftRecurRemoved_LeftFactored" localSheetId="1">First!$A$2:$L$74</definedName>
+    <definedName name="_2014PascalGrammarSubset_SpecChange_Numbered_NullProdRemoved_LeftRecurRemoved_LeftFactored" localSheetId="1">'f&amp;F'!$A$2:$K$74</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="100">
   <si>
     <t>PROGRAM</t>
   </si>
@@ -323,20 +322,35 @@
     <t>firsts</t>
   </si>
   <si>
-    <t>Subprods where firsts produced</t>
-  </si>
-  <si>
     <t>Prod</t>
   </si>
   <si>
     <t>Subprod</t>
+  </si>
+  <si>
+    <t>follows</t>
+  </si>
+  <si>
+    <t>id num ( not</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + -</t>
+  </si>
+  <si>
+    <t>id num ( not + -</t>
+  </si>
+  <si>
+    <t>integer real</t>
+  </si>
+  <si>
+    <t>id call begin if while</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -356,6 +370,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -387,21 +408,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -788,7 +834,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -798,19 +844,18 @@
     <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.5" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="85" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="26" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>90</v>
@@ -819,7 +864,7 @@
         <v>91</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -838,9 +883,6 @@
       <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
@@ -856,7 +898,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -873,7 +915,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -890,7 +932,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -907,7 +949,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -924,7 +966,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -943,9 +985,6 @@
       <c r="E8" t="s">
         <v>3</v>
       </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
@@ -963,9 +1002,6 @@
       <c r="E9" t="s">
         <v>16</v>
       </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
@@ -983,9 +1019,6 @@
       <c r="E10" t="s">
         <v>17</v>
       </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
@@ -1003,9 +1036,6 @@
       <c r="E11" t="s">
         <v>19</v>
       </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
@@ -1023,9 +1053,6 @@
       <c r="E12" t="s">
         <v>19</v>
       </c>
-      <c r="F12">
-        <v>11</v>
-      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
@@ -1043,9 +1070,6 @@
       <c r="E13" t="s">
         <v>17</v>
       </c>
-      <c r="F13">
-        <v>12</v>
-      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
@@ -1061,7 +1085,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1080,9 +1104,6 @@
       <c r="E15" t="s">
         <v>24</v>
       </c>
-      <c r="F15">
-        <v>14</v>
-      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
@@ -1100,11 +1121,8 @@
       <c r="E16" t="s">
         <v>28</v>
       </c>
-      <c r="F16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1120,11 +1138,8 @@
       <c r="E17" t="s">
         <v>29</v>
       </c>
-      <c r="F17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1138,10 +1153,10 @@
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1155,10 +1170,10 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -1174,11 +1189,8 @@
       <c r="E20" t="s">
         <v>17</v>
       </c>
-      <c r="F20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1192,10 +1204,10 @@
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -1209,10 +1221,10 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -1225,11 +1237,11 @@
       <c r="D23" t="s">
         <v>10</v>
       </c>
-      <c r="E23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="E23" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -1243,10 +1255,10 @@
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -1259,11 +1271,11 @@
       <c r="D25" t="s">
         <v>10</v>
       </c>
-      <c r="E25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="E25" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
@@ -1277,10 +1289,10 @@
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -1296,11 +1308,8 @@
       <c r="E27" t="s">
         <v>38</v>
       </c>
-      <c r="F27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
@@ -1314,10 +1323,10 @@
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
@@ -1333,11 +1342,8 @@
       <c r="E29" t="s">
         <v>6</v>
       </c>
-      <c r="F29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -1353,11 +1359,8 @@
       <c r="E30" t="s">
         <v>4</v>
       </c>
-      <c r="F30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -1373,11 +1376,8 @@
       <c r="E31" t="s">
         <v>3</v>
       </c>
-      <c r="F31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -1393,11 +1393,8 @@
       <c r="E32" t="s">
         <v>6</v>
       </c>
-      <c r="F32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
@@ -1413,11 +1410,8 @@
       <c r="E33" t="s">
         <v>17</v>
       </c>
-      <c r="F33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>45</v>
       </c>
@@ -1433,11 +1427,8 @@
       <c r="E34" t="s">
         <v>46</v>
       </c>
-      <c r="F34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>45</v>
       </c>
@@ -1451,10 +1442,10 @@
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
@@ -1470,11 +1461,8 @@
       <c r="E36" t="s">
         <v>49</v>
       </c>
-      <c r="F36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>50</v>
       </c>
@@ -1488,10 +1476,10 @@
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>52</v>
       </c>
@@ -1505,10 +1493,10 @@
         <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>52</v>
       </c>
@@ -1524,11 +1512,8 @@
       <c r="E39" t="s">
         <v>6</v>
       </c>
-      <c r="F39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
@@ -1544,11 +1529,8 @@
       <c r="E40" t="s">
         <v>17</v>
       </c>
-      <c r="F40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>55</v>
       </c>
@@ -1562,10 +1544,10 @@
         <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>55</v>
       </c>
@@ -1579,10 +1561,10 @@
         <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
@@ -1596,10 +1578,10 @@
         <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>55</v>
       </c>
@@ -1615,11 +1597,8 @@
       <c r="E44" t="s">
         <v>59</v>
       </c>
-      <c r="F44">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
@@ -1635,11 +1614,8 @@
       <c r="E45" t="s">
         <v>61</v>
       </c>
-      <c r="F45">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>55</v>
       </c>
@@ -1655,11 +1631,8 @@
       <c r="E46" t="s">
         <v>62</v>
       </c>
-      <c r="F46">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
@@ -1675,11 +1648,8 @@
       <c r="E47" t="s">
         <v>17</v>
       </c>
-      <c r="F47">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
         <v>63</v>
       </c>
@@ -1695,11 +1665,8 @@
       <c r="E48" t="s">
         <v>3</v>
       </c>
-      <c r="F48">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>63</v>
       </c>
@@ -1715,11 +1682,8 @@
       <c r="E49" t="s">
         <v>25</v>
       </c>
-      <c r="F49">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>63</v>
       </c>
@@ -1735,11 +1699,8 @@
       <c r="E50" t="s">
         <v>17</v>
       </c>
-      <c r="F50">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>65</v>
       </c>
@@ -1755,11 +1716,8 @@
       <c r="E51" t="s">
         <v>66</v>
       </c>
-      <c r="F51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>65</v>
       </c>
@@ -1775,11 +1733,8 @@
       <c r="E52" t="s">
         <v>4</v>
       </c>
-      <c r="F52">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
@@ -1795,11 +1750,8 @@
       <c r="E53" t="s">
         <v>17</v>
       </c>
-      <c r="F53">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
         <v>69</v>
       </c>
@@ -1813,10 +1765,10 @@
         <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
         <v>69</v>
       </c>
@@ -1832,11 +1784,8 @@
       <c r="E55" t="s">
         <v>16</v>
       </c>
-      <c r="F55">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
         <v>69</v>
       </c>
@@ -1852,11 +1801,8 @@
       <c r="E56" t="s">
         <v>17</v>
       </c>
-      <c r="F56">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
         <v>71</v>
       </c>
@@ -1870,10 +1816,10 @@
         <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
         <v>71</v>
       </c>
@@ -1889,11 +1835,8 @@
       <c r="E58" t="s">
         <v>74</v>
       </c>
-      <c r="F58">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
@@ -1909,11 +1852,8 @@
       <c r="E59" t="s">
         <v>17</v>
       </c>
-      <c r="F59">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
         <v>75</v>
       </c>
@@ -1927,10 +1867,10 @@
         <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
         <v>75</v>
       </c>
@@ -1944,10 +1884,10 @@
         <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
         <v>75</v>
       </c>
@@ -1963,11 +1903,8 @@
       <c r="E62" t="s">
         <v>79</v>
       </c>
-      <c r="F62">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
@@ -1983,11 +1920,8 @@
       <c r="E63" t="s">
         <v>17</v>
       </c>
-      <c r="F63">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
         <v>80</v>
       </c>
@@ -2001,10 +1935,10 @@
         <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
         <v>80</v>
       </c>
@@ -2020,11 +1954,8 @@
       <c r="E65" t="s">
         <v>83</v>
       </c>
-      <c r="F65">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>80</v>
       </c>
@@ -2040,11 +1971,8 @@
       <c r="E66" t="s">
         <v>17</v>
       </c>
-      <c r="F66">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
         <v>84</v>
       </c>
@@ -2060,11 +1988,8 @@
       <c r="E67" t="s">
         <v>3</v>
       </c>
-      <c r="F67">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
         <v>84</v>
       </c>
@@ -2080,11 +2005,8 @@
       <c r="E68" t="s">
         <v>26</v>
       </c>
-      <c r="F68">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
         <v>84</v>
       </c>
@@ -2100,11 +2022,8 @@
       <c r="E69" t="s">
         <v>4</v>
       </c>
-      <c r="F69">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
         <v>84</v>
       </c>
@@ -2120,11 +2039,8 @@
       <c r="E70" t="s">
         <v>86</v>
       </c>
-      <c r="F70">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
         <v>84</v>
       </c>
@@ -2140,11 +2056,8 @@
       <c r="E71" t="s">
         <v>25</v>
       </c>
-      <c r="F71">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
@@ -2160,11 +2073,8 @@
       <c r="E72" t="s">
         <v>17</v>
       </c>
-      <c r="F72">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
         <v>87</v>
       </c>
@@ -2180,11 +2090,8 @@
       <c r="E73" t="s">
         <v>88</v>
       </c>
-      <c r="F73">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
         <v>87</v>
       </c>
@@ -2199,9 +2106,6 @@
       </c>
       <c r="E74" t="s">
         <v>89</v>
-      </c>
-      <c r="F74">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2213,21 +2117,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/doc/ParseTable.xlsx
+++ b/doc/ParseTable.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35560" windowHeight="31560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="17560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ParseTable" sheetId="1" r:id="rId1"/>
-    <sheet name="f&amp;F" sheetId="2" r:id="rId2"/>
+    <sheet name="firsts" sheetId="2" r:id="rId2"/>
+    <sheet name="Follows" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_2014PascalGrammarSubset_SpecChange_Numbered_NullProdRemoved_LeftRecurRemoved_LeftFactored" localSheetId="1">'f&amp;F'!$A$2:$K$74</definedName>
+    <definedName name="_2014PascalGrammarSubset_SpecChange_Numbered_NullProdRemoved_LeftRecurRemoved_LeftFactored" localSheetId="1">firsts!$A$2:$J$74</definedName>
+    <definedName name="_2014PascalGrammarSubset_SpecChange_Numbered_NullProdRemoved_LeftRecurRemoved_LeftFactored" localSheetId="2">Follows!$A$2:$G$42</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="113">
   <si>
     <t>PROGRAM</t>
   </si>
@@ -217,6 +219,9 @@
     <t>VARIABLE</t>
   </si>
   <si>
+    <t>assignop</t>
+  </si>
+  <si>
     <t>EXPRESSION</t>
   </si>
   <si>
@@ -328,9 +333,6 @@
     <t>Subprod</t>
   </si>
   <si>
-    <t>follows</t>
-  </si>
-  <si>
     <t>id num ( not</t>
   </si>
   <si>
@@ -344,6 +346,45 @@
   </si>
   <si>
     <t>id call begin if while</t>
+  </si>
+  <si>
+    <t>IDENTIFIER_LIST'</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>procedure, begin</t>
+  </si>
+  <si>
+    <t>; F(PARAMATER_LIST')</t>
+  </si>
+  <si>
+    <t>Follows</t>
+  </si>
+  <si>
+    <t>F(TYPE)</t>
+  </si>
+  <si>
+    <t>var procedure begin</t>
+  </si>
+  <si>
+    <t>. ;</t>
+  </si>
+  <si>
+    <t>; end else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">) </t>
+  </si>
+  <si>
+    <t>; end else then do ] , )</t>
+  </si>
+  <si>
+    <t>relop ; end else then do ] , )</t>
+  </si>
+  <si>
+    <t>addop relop ; end else then do ] , )</t>
   </si>
 </sst>
 </file>
@@ -408,8 +449,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -433,7 +514,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="55">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -441,6 +522,26 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -448,6 +549,26 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -456,6 +577,10 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2014PascalGrammarSubset_SpecChange_Numbered_NullProdRemoved_LeftRecurRemoved_LeftFactored" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2014PascalGrammarSubset_SpecChange_Numbered_NullProdRemoved_LeftRecurRemoved_LeftFactored" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -831,10 +956,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A41" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -844,30 +969,26 @@
     <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.5" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="26" customHeight="1">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="26" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -884,7 +1005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -901,7 +1022,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -918,7 +1039,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -935,7 +1056,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -952,7 +1073,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,7 +1090,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -986,7 +1107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1003,7 +1124,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1020,7 +1141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1037,7 +1158,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1054,7 +1175,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1071,7 +1192,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1088,7 +1209,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1105,7 +1226,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1561,7 +1682,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1595,7 +1716,7 @@
         <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1612,7 +1733,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1623,13 +1744,13 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D46" t="s">
         <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1640,7 +1761,7 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D47" t="s">
         <v>10</v>
@@ -1651,7 +1772,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -1668,13 +1789,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B49">
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D49" t="s">
         <v>10</v>
@@ -1685,13 +1806,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B50">
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D50" t="s">
         <v>10</v>
@@ -1702,30 +1823,30 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B51">
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D51" t="s">
         <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B52">
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D52" t="s">
         <v>10</v>
@@ -1736,13 +1857,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B53">
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D53" t="s">
         <v>10</v>
@@ -1753,13 +1874,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B54">
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D54" t="s">
         <v>10</v>
@@ -1770,13 +1891,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B55">
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D55" t="s">
         <v>10</v>
@@ -1787,13 +1908,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B56">
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D56" t="s">
         <v>10</v>
@@ -1804,13 +1925,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B57">
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D57" t="s">
         <v>10</v>
@@ -1821,30 +1942,30 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B58">
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D58" t="s">
         <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B59">
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D59" t="s">
         <v>10</v>
@@ -1855,13 +1976,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B60">
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D60" t="s">
         <v>10</v>
@@ -1872,13 +1993,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B61">
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D61" t="s">
         <v>10</v>
@@ -1889,30 +2010,30 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B62">
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D62" t="s">
         <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B63">
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D63" t="s">
         <v>10</v>
@@ -1923,13 +2044,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B64">
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D64" t="s">
         <v>10</v>
@@ -1940,30 +2061,30 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B65">
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D65" t="s">
         <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B66">
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D66" t="s">
         <v>10</v>
@@ -1974,13 +2095,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B67">
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D67" t="s">
         <v>10</v>
@@ -1991,13 +2112,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B68">
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D68" t="s">
         <v>10</v>
@@ -2008,13 +2129,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B69">
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D69" t="s">
         <v>10</v>
@@ -2025,30 +2146,30 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B70">
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D70" t="s">
         <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B71">
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D71" t="s">
         <v>10</v>
@@ -2059,13 +2180,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B72">
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D72" t="s">
         <v>10</v>
@@ -2076,36 +2197,527 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B73">
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D73" t="s">
         <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B74">
         <v>73</v>
       </c>
       <c r="C74" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="26" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
         <v>77</v>
       </c>
-      <c r="D74" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" t="s">
-        <v>89</v>
+      <c r="C38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ParseTable.xlsx
+++ b/doc/ParseTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="17560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="17480" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ParseTable" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="112">
   <si>
     <t>PROGRAM</t>
   </si>
@@ -357,15 +357,9 @@
     <t>procedure, begin</t>
   </si>
   <si>
-    <t>; F(PARAMATER_LIST')</t>
-  </si>
-  <si>
     <t>Follows</t>
   </si>
   <si>
-    <t>F(TYPE)</t>
-  </si>
-  <si>
     <t>var procedure begin</t>
   </si>
   <si>
@@ -385,6 +379,9 @@
   </si>
   <si>
     <t>addop relop ; end else then do ] , )</t>
+  </si>
+  <si>
+    <t>; )</t>
   </si>
 </sst>
 </file>
@@ -449,8 +446,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -514,7 +513,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -542,6 +541,7 @@
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -569,6 +569,7 @@
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -958,7 +959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
@@ -2244,8 +2245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2266,7 +2267,7 @@
         <v>91</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2354,7 +2355,7 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2365,7 +2366,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2431,7 +2432,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2442,7 +2443,7 @@
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2486,7 +2487,7 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2497,7 +2498,7 @@
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2541,7 +2542,7 @@
         <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2552,7 +2553,7 @@
         <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2585,7 +2586,7 @@
         <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2596,7 +2597,7 @@
         <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2607,7 +2608,7 @@
         <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2629,7 +2630,7 @@
         <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2640,7 +2641,7 @@
         <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2651,7 +2652,7 @@
         <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2662,7 +2663,7 @@
         <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2673,7 +2674,7 @@
         <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2684,7 +2685,7 @@
         <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:3">

--- a/doc/ParseTable.xlsx
+++ b/doc/ParseTable.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="113">
   <si>
     <t>PROGRAM</t>
   </si>
@@ -382,6 +382,9 @@
   </si>
   <si>
     <t>; )</t>
+  </si>
+  <si>
+    <t>addop relop ; end else then do ] , ) mulop</t>
   </si>
 </sst>
 </file>
@@ -446,8 +449,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -513,7 +520,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="57">
+  <cellStyles count="61">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -542,6 +549,8 @@
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -570,6 +579,8 @@
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -960,7 +971,7 @@
   <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2245,8 +2256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2695,8 +2706,8 @@
       <c r="B40" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>95</v>
+      <c r="C40" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2706,8 +2717,8 @@
       <c r="B41" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>95</v>
+      <c r="C41" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:3">

--- a/doc/ParseTable.xlsx
+++ b/doc/ParseTable.xlsx
@@ -4,16 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="17480" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17500" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="17720" yWindow="0" windowWidth="11080" windowHeight="17480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ParseTable" sheetId="1" r:id="rId1"/>
     <sheet name="firsts" sheetId="2" r:id="rId2"/>
     <sheet name="Follows" sheetId="4" r:id="rId3"/>
+    <sheet name="G" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_2014PascalGrammarSubset_SpecChange_Numbered_NullProdRemoved_LeftRecurRemoved_LeftFactored" localSheetId="1">firsts!$A$2:$J$74</definedName>
     <definedName name="_2014PascalGrammarSubset_SpecChange_Numbered_NullProdRemoved_LeftRecurRemoved_LeftFactored" localSheetId="2">Follows!$A$2:$G$42</definedName>
+    <definedName name="copyForImport" localSheetId="3">G!$A$1:$B$73</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -42,11 +45,28 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="2" name="2014PascalGrammarSubset_SpecChange_Numbered_NullProdRemoved_LeftRecurRemoved_LeftFactored1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="ENTERPRISE:Users:kuxhausen:Desktop:compiler-front-end:doc:2014PascalGrammarSubset_SpecChange_Numbered_NullProdRemoved_LeftRecurRemoved_LeftFactored" tab="0" qualifier="none" delimiter="-">
+      <textFields count="3">
+        <textField type="text"/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="copyForImport" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="ENTERPRISE:Users:kuxhausen:Desktop:compiler-front-end:doc:copyForImport" tab="0" qualifier="none" delimiter="@">
+      <textFields count="2">
+        <textField type="text"/>
+        <textField type="text"/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="227">
   <si>
     <t>PROGRAM</t>
   </si>
@@ -354,9 +374,6 @@
     <t>$</t>
   </si>
   <si>
-    <t>procedure, begin</t>
-  </si>
-  <si>
     <t>Follows</t>
   </si>
   <si>
@@ -385,13 +402,358 @@
   </si>
   <si>
     <t>addop relop ; end else then do ] , ) mulop</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>then</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>div</t>
+  </si>
+  <si>
+    <t>mod</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =</t>
+  </si>
+  <si>
+    <t>&lt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>procedure begin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 PROGRAM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 PROGRAM^ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 PROGRAM^^ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 IDENTIFIER_LIST </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 IDENTIFIER_LIST` </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 DECLARATIONS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 DECLARATIONS` </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 TYPE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 STANDARD_TYPE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 SUBPROGRAM_DECLARATIONS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 SUBPROGRAM_DECLARATIONS` </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 SUBPROGRAM_DECLARATION </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 SUBPROGRAM_DECLARATION^ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 SUBPROGRAM_DECLARATION^^ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 SUBPROGRAM_HEAD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 SUBPROGRAM_HEAD^ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 ARGUMENTS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 PARAMETER_LIST </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 PARAMETER_LIST` </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 COMPOUND_STATEMENT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 COMPOUND_STATEMENT^ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 OPTIONAL_STATEMENTS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 STATEMENT_LIST </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 STATEMENT_LIST` </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 STATEMENT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 STATEMENT^ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 VARIABLE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 VARIABLE^ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 PROCEDURE_STATEMENT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 PROCEDURE_STATEMENT^ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 EXPRESSION_LIST </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 EXPRESSION_LIST` </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 EXPRESSION </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 EXPRESSION^ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 SIMPLE_EXPRESSION </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 SIMPLE_EXPRESSION' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 TERM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 TERM` </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 FACTOR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 FACTOR^ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 SIGN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> program id ( IDENTIFIER_LIST ) ; PROGRAM^</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DECLARATIONS PROGRAM^^</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SUBPROGRAM_DECLARATIONS COMPOUND_STATEMENT .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COMPOUND_STATEMENT .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> id IDENTIFIER_LIST`</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> , id IDENTIFIER_LIST`</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> e</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> var id : TYPE ; DECLARATIONS`</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> var id : TYPE ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STANDARD_TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> array [ num .. num ] of STANDARD_TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> real</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SUBPROGRAM_DECLARATION ; SUBPROGRAM_DECLARATIONS`</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SUBPROGRAM_HEAD SUBPROGRAM_DECLARATION^</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DECLARATIONS SUBPROGRAM_DECLARATION^^</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SUBPROGRAM_DECLARATIONS COMPOUND_STATEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COMPOUND_STATEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> procedure id SUBPROGRAM_HEAD^</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ARGUMENTS ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( PARAMETER_LIST )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> id : TYPE PARAMETER_LIST`</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ; id : TYPE PARAMETER_LIST`</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> begin COMPOUND_STATEMENT^</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OPTIONAL_STATEMENTS end</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> end</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STATEMENT_LIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STATEMENT STATEMENT_LIST`</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ; STATEMENT STATEMENT_LIST`</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VARIABLE assignop EXPRESSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROCEDURE_STATEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if EXPRESSION then STATEMENT STATEMENT^</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> while EXPRESSION do STATEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> else STATEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> id VARIABLE^</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ EXPRESSION ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> call id PROCEDURE_STATEMENT^</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( EXPRESSION_LIST )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EXPRESSION EXPRESSION_LIST`</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> , EXPRESSION EXPRESSION_LIST`</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SIMPLE_EXPRESSION EXPRESSION^</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> relop SIMPLE_EXPRESSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TERM SIMPLE_EXPRESSION`</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SIGN TERM SIMPLE_EXPRESSION`</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> addop TERM SIMPLE_EXPRESSION`</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FACTOR TERM`</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mulop FACTOR TERM`</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> id FACTOR^</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> num</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( EXPRESSION )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> not FACTOR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -418,6 +780,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -449,8 +817,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -520,7 +898,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="71">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -551,6 +929,11 @@
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -581,6 +964,11 @@
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -594,6 +982,10 @@
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2014PascalGrammarSubset_SpecChange_Numbered_NullProdRemoved_LeftRecurRemoved_LeftFactored" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="copyForImport" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -918,48 +1310,390 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:AP42"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AO5" sqref="AO5"/>
+    </sheetView>
+    <sheetView topLeftCell="A2" workbookViewId="1">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:42">
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>128</v>
+      </c>
+      <c r="R1" t="s">
+        <v>130</v>
+      </c>
+      <c r="S1" t="s">
+        <v>129</v>
+      </c>
+      <c r="T1" t="s">
+        <v>131</v>
+      </c>
+      <c r="U1" t="s">
+        <v>132</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="W1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:42">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="V2" s="1" t="str">
+        <f>G!B1</f>
+        <v xml:space="preserve"> program id ( IDENTIFIER_LIST ) ; PROGRAM^</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="1" t="str">
+        <f>G!B2</f>
+        <v xml:space="preserve"> DECLARATIONS PROGRAM^^</v>
+      </c>
+      <c r="AB3" s="1" t="str">
+        <f>G!B3</f>
+        <v xml:space="preserve"> SUBPROGRAM_DECLARATIONS COMPOUND_STATEMENT .</v>
+      </c>
+      <c r="AC3" s="1" t="str">
+        <f>G!B4</f>
+        <v xml:space="preserve"> COMPOUND_STATEMENT .</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB4" s="1" t="str">
+        <f>G!B5</f>
+        <v xml:space="preserve"> SUBPROGRAM_DECLARATIONS COMPOUND_STATEMENT .</v>
+      </c>
+      <c r="AC4" s="1" t="str">
+        <f>G!B6</f>
+        <v xml:space="preserve"> COMPOUND_STATEMENT .</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="AP5" s="1" t="str">
+        <f>G!B7</f>
+        <v xml:space="preserve"> id IDENTIFIER_LIST`</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
+      <c r="A6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:42">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42">
+      <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42">
+      <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42">
+      <c r="A13" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42">
+      <c r="A14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42">
+      <c r="A15" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -971,7 +1705,10 @@
   <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+      <selection activeCell="F57" sqref="F57"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="1">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2242,10 +2979,12 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -2256,8 +2995,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A15" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2278,7 +3020,7 @@
         <v>91</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2344,7 +3086,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2355,7 +3097,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2366,7 +3108,7 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2377,7 +3119,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2443,7 +3185,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2454,7 +3196,7 @@
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2498,7 +3240,7 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2509,7 +3251,7 @@
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2553,7 +3295,7 @@
         <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2564,7 +3306,7 @@
         <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2597,7 +3339,7 @@
         <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2608,7 +3350,7 @@
         <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2619,7 +3361,7 @@
         <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2641,7 +3383,7 @@
         <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2652,7 +3394,7 @@
         <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2663,7 +3405,7 @@
         <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2674,7 +3416,7 @@
         <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2685,7 +3427,7 @@
         <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2696,7 +3438,7 @@
         <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2707,7 +3449,7 @@
         <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2718,7 +3460,7 @@
         <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2738,6 +3480,617 @@
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>

--- a/doc/ParseTable.xlsx
+++ b/doc/ParseTable.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17500" windowHeight="17480" tabRatio="500"/>
-    <workbookView xWindow="17720" yWindow="0" windowWidth="11080" windowHeight="17480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="39700" windowHeight="16960" tabRatio="500"/>
+    <workbookView xWindow="39820" yWindow="0" windowWidth="11380" windowHeight="31480" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ParseTable" sheetId="1" r:id="rId1"/>
     <sheet name="firsts" sheetId="2" r:id="rId2"/>
     <sheet name="Follows" sheetId="4" r:id="rId3"/>
-    <sheet name="G" sheetId="7" r:id="rId4"/>
+    <sheet name="Gr" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_2014PascalGrammarSubset_SpecChange_Numbered_NullProdRemoved_LeftRecurRemoved_LeftFactored" localSheetId="1">firsts!$A$2:$J$74</definedName>
     <definedName name="_2014PascalGrammarSubset_SpecChange_Numbered_NullProdRemoved_LeftRecurRemoved_LeftFactored" localSheetId="2">Follows!$A$2:$G$42</definedName>
-    <definedName name="copyForImport" localSheetId="3">G!$A$1:$B$73</definedName>
+    <definedName name="copyForImport" localSheetId="3">Gr!$A$1:$B$73</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -55,7 +55,7 @@
     </textPr>
   </connection>
   <connection id="3" name="copyForImport" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="ENTERPRISE:Users:kuxhausen:Desktop:compiler-front-end:doc:copyForImport" tab="0" qualifier="none" delimiter="@">
+    <textPr fileType="mac" sourceFile="ENTERPRISE:Users:kuxhausen:Desktop:compiler-front-end:doc:copyForImport" tab="0" qualifier="none" delimiter="@">
       <textFields count="2">
         <textField type="text"/>
         <textField type="text"/>
@@ -890,13 +890,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="71">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1312,11 +1314,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO5" sqref="AO5"/>
+      <selection pane="bottomRight" activeCell="X10" sqref="X10"/>
     </sheetView>
     <sheetView topLeftCell="A2" workbookViewId="1">
       <selection activeCell="A3" sqref="A3"/>
@@ -1325,130 +1327,139 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="21" width="10.83203125" style="4"/>
+    <col min="22" max="22" width="37.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="34.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.83203125" style="4"/>
+    <col min="26" max="27" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="49.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="42" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AN1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AO1" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AP1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1456,8 +1467,8 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="V2" s="1" t="str">
-        <f>G!B1</f>
+      <c r="V2" s="4" t="str">
+        <f>Gr!B1</f>
         <v xml:space="preserve"> program id ( IDENTIFIER_LIST ) ; PROGRAM^</v>
       </c>
     </row>
@@ -1466,15 +1477,15 @@
         <v>7</v>
       </c>
       <c r="W3" s="1" t="str">
-        <f>G!B2</f>
+        <f>Gr!B2</f>
         <v xml:space="preserve"> DECLARATIONS PROGRAM^^</v>
       </c>
-      <c r="AB3" s="1" t="str">
-        <f>G!B3</f>
+      <c r="AB3" s="4" t="str">
+        <f>Gr!B3</f>
         <v xml:space="preserve"> SUBPROGRAM_DECLARATIONS COMPOUND_STATEMENT .</v>
       </c>
-      <c r="AC3" s="1" t="str">
-        <f>G!B4</f>
+      <c r="AC3" s="4" t="str">
+        <f>Gr!B4</f>
         <v xml:space="preserve"> COMPOUND_STATEMENT .</v>
       </c>
     </row>
@@ -1482,12 +1493,12 @@
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB4" s="1" t="str">
-        <f>G!B5</f>
+      <c r="AB4" s="4" t="str">
+        <f>Gr!B5</f>
         <v xml:space="preserve"> SUBPROGRAM_DECLARATIONS COMPOUND_STATEMENT .</v>
       </c>
-      <c r="AC4" s="1" t="str">
-        <f>G!B6</f>
+      <c r="AC4" s="4" t="str">
+        <f>Gr!B6</f>
         <v xml:space="preserve"> COMPOUND_STATEMENT .</v>
       </c>
     </row>
@@ -1495,8 +1506,8 @@
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AP5" s="1" t="str">
-        <f>G!B7</f>
+      <c r="AP5" s="4" t="str">
+        <f>Gr!B7</f>
         <v xml:space="preserve"> id IDENTIFIER_LIST`</v>
       </c>
     </row>
@@ -1504,27 +1515,61 @@
       <c r="A6" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="C6" s="1" t="str">
+        <f>Gr!B9</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f>Gr!B8</f>
+        <v xml:space="preserve"> , id IDENTIFIER_LIST`</v>
+      </c>
     </row>
     <row r="7" spans="1:42">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="W7" s="1" t="str">
+        <f>Gr!B10</f>
+        <v xml:space="preserve"> var id : TYPE ; DECLARATIONS`</v>
+      </c>
     </row>
     <row r="8" spans="1:42">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="W8" s="1" t="str">
+        <f>Gr!B11</f>
+        <v xml:space="preserve"> var id : TYPE ;</v>
+      </c>
+      <c r="AB8" s="1" t="str">
+        <f>Gr!B12</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="AC8" s="1" t="str">
+        <f>Gr!B12</f>
+        <v xml:space="preserve"> e</v>
+      </c>
     </row>
     <row r="9" spans="1:42">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="Z9" s="1" t="str">
+        <f>Gr!B13</f>
+        <v xml:space="preserve"> STANDARD_TYPE</v>
+      </c>
+      <c r="AA9" s="1" t="str">
+        <f>Gr!B13</f>
+        <v xml:space="preserve"> STANDARD_TYPE</v>
+      </c>
     </row>
     <row r="10" spans="1:42">
       <c r="A10" s="3" t="s">
         <v>23</v>
+      </c>
+      <c r="X10" s="1" t="str">
+        <f>Gr!B14</f>
+        <v xml:space="preserve"> array [ num .. num ] of STANDARD_TYPE</v>
       </c>
     </row>
     <row r="11" spans="1:42">
@@ -1707,8 +1752,8 @@
     <sheetView topLeftCell="A43" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="F57" sqref="F57"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="1">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="1">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2999,7 +3044,7 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
     <sheetView workbookViewId="1">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/doc/ParseTable.xlsx
+++ b/doc/ParseTable.xlsx
@@ -4,8 +4,8 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="39700" windowHeight="16960" tabRatio="500"/>
-    <workbookView xWindow="39820" yWindow="0" windowWidth="11380" windowHeight="31480" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="39700" windowHeight="17140" tabRatio="500"/>
+    <workbookView xWindow="39820" yWindow="0" windowWidth="11380" windowHeight="31560" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ParseTable" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="228">
   <si>
     <t>PROGRAM</t>
   </si>
@@ -747,6 +747,9 @@
   </si>
   <si>
     <t xml:space="preserve"> not FACTOR</t>
+  </si>
+  <si>
+    <t>=Gr!B45 +"|" + =Gr!B46</t>
   </si>
 </sst>
 </file>
@@ -1312,13 +1315,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP42"/>
+  <dimension ref="A1:AQ42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X10" sqref="X10"/>
+      <selection pane="bottomRight" activeCell="AK32" sqref="AK32"/>
     </sheetView>
     <sheetView topLeftCell="A2" workbookViewId="1">
       <selection activeCell="A3" sqref="A3"/>
@@ -1327,18 +1330,35 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="21" width="10.83203125" style="4"/>
+    <col min="2" max="2" width="27.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="4"/>
+    <col min="4" max="4" width="27.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="4"/>
+    <col min="6" max="6" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="4"/>
+    <col min="8" max="8" width="13.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="21" width="10.83203125" style="4"/>
     <col min="22" max="22" width="37.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="41.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="34.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10.83203125" style="4"/>
     <col min="26" max="27" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="49.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="42" width="10.83203125" style="4"/>
+    <col min="28" max="28" width="53.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="28.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.83203125" style="4"/>
+    <col min="31" max="31" width="39.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.83203125" style="4"/>
+    <col min="33" max="33" width="20.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="29.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.83203125" style="4"/>
+    <col min="36" max="36" width="28.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="27.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="41" width="10.83203125" style="4"/>
+    <col min="42" max="42" width="26.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="27.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:43">
       <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
@@ -1462,8 +1482,11 @@
       <c r="AP1" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:42">
+      <c r="AQ1" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1472,7 +1495,7 @@
         <v xml:space="preserve"> program id ( IDENTIFIER_LIST ) ; PROGRAM^</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:43">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1489,7 +1512,7 @@
         <v xml:space="preserve"> COMPOUND_STATEMENT .</v>
       </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:43">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1502,7 +1525,7 @@
         <v xml:space="preserve"> COMPOUND_STATEMENT .</v>
       </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:43">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1511,7 +1534,7 @@
         <v xml:space="preserve"> id IDENTIFIER_LIST`</v>
       </c>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:43">
       <c r="A6" s="3" t="s">
         <v>100</v>
       </c>
@@ -1524,7 +1547,7 @@
         <v xml:space="preserve"> , id IDENTIFIER_LIST`</v>
       </c>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:43">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1533,7 +1556,7 @@
         <v xml:space="preserve"> var id : TYPE ; DECLARATIONS`</v>
       </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:43">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1550,9 +1573,13 @@
         <v xml:space="preserve"> e</v>
       </c>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:43">
       <c r="A9" s="3" t="s">
         <v>20</v>
+      </c>
+      <c r="X9" s="1" t="str">
+        <f>Gr!B14</f>
+        <v xml:space="preserve"> array [ num .. num ] of STANDARD_TYPE</v>
       </c>
       <c r="Z9" s="1" t="str">
         <f>Gr!B13</f>
@@ -1563,123 +1590,352 @@
         <v xml:space="preserve"> STANDARD_TYPE</v>
       </c>
     </row>
-    <row r="10" spans="1:42">
+    <row r="10" spans="1:43">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="X10" s="1" t="str">
-        <f>Gr!B14</f>
-        <v xml:space="preserve"> array [ num .. num ] of STANDARD_TYPE</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42">
+      <c r="X10" s="1"/>
+      <c r="Z10" s="1" t="str">
+        <f>Gr!B15</f>
+        <v xml:space="preserve"> integer</v>
+      </c>
+      <c r="AA10" s="1" t="str">
+        <f>Gr!B16</f>
+        <v xml:space="preserve"> real</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:42">
+      <c r="AB11" s="1" t="str">
+        <f>Gr!B17</f>
+        <v xml:space="preserve"> SUBPROGRAM_DECLARATION ; SUBPROGRAM_DECLARATIONS`</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:42">
+      <c r="AB12" s="1" t="str">
+        <f>Gr!B18</f>
+        <v xml:space="preserve"> SUBPROGRAM_DECLARATION ; SUBPROGRAM_DECLARATIONS`</v>
+      </c>
+      <c r="AC12" s="1" t="str">
+        <f>Gr!B19</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43">
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:42">
+      <c r="AB13" s="1" t="str">
+        <f>Gr!B20</f>
+        <v xml:space="preserve"> SUBPROGRAM_HEAD SUBPROGRAM_DECLARATION^</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43">
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:42">
+      <c r="W14" s="1" t="str">
+        <f>Gr!B21</f>
+        <v xml:space="preserve"> DECLARATIONS SUBPROGRAM_DECLARATION^^</v>
+      </c>
+      <c r="AB14" s="1" t="str">
+        <f>Gr!B22</f>
+        <v xml:space="preserve"> SUBPROGRAM_DECLARATIONS COMPOUND_STATEMENT</v>
+      </c>
+      <c r="AC14" s="1" t="str">
+        <f>Gr!B23</f>
+        <v xml:space="preserve"> COMPOUND_STATEMENT</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43">
       <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:42">
+      <c r="AB15" s="1" t="str">
+        <f>Gr!B24</f>
+        <v xml:space="preserve"> SUBPROGRAM_DECLARATIONS COMPOUND_STATEMENT</v>
+      </c>
+      <c r="AC15" s="1" t="str">
+        <f>Gr!B25</f>
+        <v xml:space="preserve"> COMPOUND_STATEMENT</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43">
       <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="1"/>
+      <c r="AB16" s="1" t="str">
+        <f>Gr!B26</f>
+        <v xml:space="preserve"> procedure id SUBPROGRAM_HEAD^</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43">
       <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="1" t="str">
+        <f>Gr!B27</f>
+        <v xml:space="preserve"> ARGUMENTS ;</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f>Gr!B28</f>
+        <v xml:space="preserve"> ;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="1" t="str">
+        <f>Gr!B29</f>
+        <v xml:space="preserve"> ( PARAMETER_LIST )</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43">
       <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="AP19" s="1" t="str">
+        <f>Gr!B30</f>
+        <v xml:space="preserve"> id : TYPE PARAMETER_LIST`</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43">
       <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="C20" s="1" t="str">
+        <f>Gr!B32</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f>Gr!B31</f>
+        <v xml:space="preserve"> ; id : TYPE PARAMETER_LIST`</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="AC21" s="1" t="str">
+        <f>Gr!B33</f>
+        <v xml:space="preserve"> begin COMPOUND_STATEMENT^</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43">
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="AC22" s="1" t="str">
+        <f>Gr!B34</f>
+        <v xml:space="preserve"> OPTIONAL_STATEMENTS end</v>
+      </c>
+      <c r="AD22" s="1" t="str">
+        <f>Gr!B35</f>
+        <v xml:space="preserve"> end</v>
+      </c>
+      <c r="AE22" s="1" t="str">
+        <f>Gr!B34</f>
+        <v xml:space="preserve"> OPTIONAL_STATEMENTS end</v>
+      </c>
+      <c r="AH22" s="1" t="str">
+        <f>Gr!B34</f>
+        <v xml:space="preserve"> OPTIONAL_STATEMENTS end</v>
+      </c>
+      <c r="AJ22" s="1" t="str">
+        <f>Gr!B34</f>
+        <v xml:space="preserve"> OPTIONAL_STATEMENTS end</v>
+      </c>
+      <c r="AP22" s="1" t="str">
+        <f>Gr!B34</f>
+        <v xml:space="preserve"> OPTIONAL_STATEMENTS end</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43">
       <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="AC23" s="1" t="str">
+        <f>Gr!B36</f>
+        <v xml:space="preserve"> STATEMENT_LIST</v>
+      </c>
+      <c r="AE23" s="1" t="str">
+        <f>Gr!B36</f>
+        <v xml:space="preserve"> STATEMENT_LIST</v>
+      </c>
+      <c r="AH23" s="1" t="str">
+        <f>Gr!B36</f>
+        <v xml:space="preserve"> STATEMENT_LIST</v>
+      </c>
+      <c r="AJ23" s="1" t="str">
+        <f>Gr!B36</f>
+        <v xml:space="preserve"> STATEMENT_LIST</v>
+      </c>
+      <c r="AP23" s="1" t="str">
+        <f>Gr!B36</f>
+        <v xml:space="preserve"> STATEMENT_LIST</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43">
       <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="AC24" s="1" t="str">
+        <f>Gr!B37</f>
+        <v xml:space="preserve"> STATEMENT STATEMENT_LIST`</v>
+      </c>
+      <c r="AE24" s="1" t="str">
+        <f>Gr!B37</f>
+        <v xml:space="preserve"> STATEMENT STATEMENT_LIST`</v>
+      </c>
+      <c r="AH24" s="1" t="str">
+        <f>Gr!B37</f>
+        <v xml:space="preserve"> STATEMENT STATEMENT_LIST`</v>
+      </c>
+      <c r="AJ24" s="1" t="str">
+        <f>Gr!B37</f>
+        <v xml:space="preserve"> STATEMENT STATEMENT_LIST`</v>
+      </c>
+      <c r="AP24" s="1" t="str">
+        <f>Gr!B37</f>
+        <v xml:space="preserve"> STATEMENT STATEMENT_LIST`</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43">
       <c r="A25" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="D25" s="1" t="str">
+        <f>Gr!B38</f>
+        <v xml:space="preserve"> ; STATEMENT STATEMENT_LIST`</v>
+      </c>
+      <c r="AD25" s="1" t="str">
+        <f>Gr!B39</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43">
       <c r="A26" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="AC26" s="1" t="str">
+        <f>Gr!B42</f>
+        <v xml:space="preserve"> COMPOUND_STATEMENT</v>
+      </c>
+      <c r="AE26" s="1" t="str">
+        <f>Gr!B43</f>
+        <v xml:space="preserve"> if EXPRESSION then STATEMENT STATEMENT^</v>
+      </c>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1" t="str">
+        <f>Gr!B44</f>
+        <v xml:space="preserve"> while EXPRESSION do STATEMENT</v>
+      </c>
+      <c r="AJ26" s="1" t="str">
+        <f>Gr!B41</f>
+        <v xml:space="preserve"> PROCEDURE_STATEMENT</v>
+      </c>
+      <c r="AP26" s="1" t="str">
+        <f>Gr!B40</f>
+        <v xml:space="preserve"> VARIABLE assignop EXPRESSION</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43">
       <c r="A27" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="D27" s="1" t="str">
+        <f>Gr!B46</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="AD27" s="1" t="str">
+        <f>Gr!B46</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="AG27" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43">
       <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="AP28" s="1" t="str">
+        <f>Gr!B47</f>
+        <v xml:space="preserve"> id VARIABLE^</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43">
       <c r="A29" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="H29" s="1" t="str">
+        <f>Gr!B48</f>
+        <v xml:space="preserve"> [ EXPRESSION ]</v>
+      </c>
+      <c r="K29" s="1" t="str">
+        <f>Gr!B49</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43">
       <c r="A30" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="AJ30" s="1" t="str">
+        <f>Gr!B50</f>
+        <v xml:space="preserve"> call id PROCEDURE_STATEMENT^</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43">
       <c r="A31" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31" s="1" t="str">
+        <f>Gr!B51</f>
+        <v xml:space="preserve"> ( EXPRESSION_LIST )</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f>Gr!B52</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="AD31" s="1" t="str">
+        <f>Gr!B52</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="AG31" s="1" t="str">
+        <f>Gr!B52</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43">
       <c r="A32" s="3" t="s">
         <v>69</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <f>Gr!B53</f>
+        <v xml:space="preserve"> EXPRESSION EXPRESSION_LIST`</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AK32" s="1" t="str">
+        <f>Gr!B53</f>
+        <v xml:space="preserve"> EXPRESSION EXPRESSION_LIST`</v>
+      </c>
+      <c r="AP32" s="1" t="str">
+        <f>Gr!B53</f>
+        <v xml:space="preserve"> EXPRESSION EXPRESSION_LIST`</v>
+      </c>
+      <c r="AQ32" s="1" t="str">
+        <f>Gr!B53</f>
+        <v xml:space="preserve"> EXPRESSION EXPRESSION_LIST`</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -1753,7 +2009,7 @@
       <selection activeCell="F57" sqref="F57"/>
     </sheetView>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="1">
-      <selection activeCell="D84" sqref="D84"/>
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3044,7 +3300,7 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
     <sheetView workbookViewId="1">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/doc/ParseTable.xlsx
+++ b/doc/ParseTable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="39700" windowHeight="17140" tabRatio="500"/>
-    <workbookView xWindow="39820" yWindow="0" windowWidth="11380" windowHeight="31560" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="39820" yWindow="-20" windowWidth="11380" windowHeight="31540" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ParseTable" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="222">
   <si>
     <t>PROGRAM</t>
   </si>
@@ -435,24 +435,6 @@
   </si>
   <si>
     <t>]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> =</t>
-  </si>
-  <si>
-    <t>&lt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;</t>
-  </si>
-  <si>
-    <t>&lt;=</t>
-  </si>
-  <si>
-    <t>&gt;=</t>
-  </si>
-  <si>
-    <t>&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> -</t>
@@ -820,8 +802,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -903,7 +893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="79">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -939,6 +929,10 @@
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -974,6 +968,10 @@
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1315,13 +1313,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ42"/>
+  <dimension ref="A1:AM42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK32" sqref="AK32"/>
+      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
     </sheetView>
     <sheetView topLeftCell="A2" workbookViewId="1">
       <selection activeCell="A3" sqref="A3"/>
@@ -1330,35 +1328,39 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="4"/>
     <col min="4" max="4" width="27.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="4"/>
-    <col min="6" max="6" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="4"/>
     <col min="8" max="8" width="13.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="21" width="10.83203125" style="4"/>
-    <col min="22" max="22" width="37.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="41.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="34.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.83203125" style="4"/>
-    <col min="26" max="27" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="53.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="28.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.83203125" style="4"/>
-    <col min="31" max="31" width="39.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.83203125" style="4"/>
-    <col min="33" max="33" width="20.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="29.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.83203125" style="4"/>
-    <col min="36" max="36" width="28.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="27.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="41" width="10.83203125" style="4"/>
-    <col min="42" max="42" width="26.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="10.83203125" style="4"/>
+    <col min="12" max="13" width="30.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.83203125" style="4"/>
+    <col min="16" max="16" width="37.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="41.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="34.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" style="4"/>
+    <col min="20" max="21" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="53.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.83203125" style="4"/>
+    <col min="25" max="25" width="39.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.83203125" style="4"/>
+    <col min="27" max="27" width="20.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.83203125" style="4"/>
+    <col min="30" max="30" width="28.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="30.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="10.83203125" style="4"/>
+    <col min="36" max="36" width="30.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="30.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:39">
       <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
@@ -1390,10 +1392,10 @@
         <v>57</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>125</v>
@@ -1401,140 +1403,128 @@
       <c r="O1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>132</v>
+      <c r="P1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="V2" s="4" t="str">
+      <c r="P2" s="4" t="str">
         <f>Gr!B1</f>
         <v xml:space="preserve"> program id ( IDENTIFIER_LIST ) ; PROGRAM^</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:39">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="W3" s="1" t="str">
+      <c r="Q3" s="1" t="str">
         <f>Gr!B2</f>
         <v xml:space="preserve"> DECLARATIONS PROGRAM^^</v>
       </c>
-      <c r="AB3" s="4" t="str">
+      <c r="V3" s="4" t="str">
         <f>Gr!B3</f>
         <v xml:space="preserve"> SUBPROGRAM_DECLARATIONS COMPOUND_STATEMENT .</v>
       </c>
-      <c r="AC3" s="4" t="str">
+      <c r="W3" s="4" t="str">
         <f>Gr!B4</f>
         <v xml:space="preserve"> COMPOUND_STATEMENT .</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:39">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB4" s="4" t="str">
+      <c r="V4" s="4" t="str">
         <f>Gr!B5</f>
         <v xml:space="preserve"> SUBPROGRAM_DECLARATIONS COMPOUND_STATEMENT .</v>
       </c>
-      <c r="AC4" s="4" t="str">
+      <c r="W4" s="4" t="str">
         <f>Gr!B6</f>
         <v xml:space="preserve"> COMPOUND_STATEMENT .</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:39">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AP5" s="4" t="str">
+      <c r="AJ5" s="4" t="str">
         <f>Gr!B7</f>
         <v xml:space="preserve"> id IDENTIFIER_LIST`</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:39">
       <c r="A6" s="3" t="s">
         <v>100</v>
       </c>
@@ -1547,135 +1537,135 @@
         <v xml:space="preserve"> , id IDENTIFIER_LIST`</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:39">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W7" s="1" t="str">
+      <c r="Q7" s="1" t="str">
         <f>Gr!B10</f>
         <v xml:space="preserve"> var id : TYPE ; DECLARATIONS`</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:39">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="1" t="str">
+      <c r="Q8" s="1" t="str">
         <f>Gr!B11</f>
         <v xml:space="preserve"> var id : TYPE ;</v>
       </c>
-      <c r="AB8" s="1" t="str">
+      <c r="V8" s="1" t="str">
         <f>Gr!B12</f>
         <v xml:space="preserve"> e</v>
       </c>
-      <c r="AC8" s="1" t="str">
+      <c r="W8" s="1" t="str">
         <f>Gr!B12</f>
         <v xml:space="preserve"> e</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:39">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="X9" s="1" t="str">
+      <c r="R9" s="1" t="str">
         <f>Gr!B14</f>
         <v xml:space="preserve"> array [ num .. num ] of STANDARD_TYPE</v>
       </c>
-      <c r="Z9" s="1" t="str">
+      <c r="T9" s="1" t="str">
         <f>Gr!B13</f>
         <v xml:space="preserve"> STANDARD_TYPE</v>
       </c>
-      <c r="AA9" s="1" t="str">
+      <c r="U9" s="1" t="str">
         <f>Gr!B13</f>
         <v xml:space="preserve"> STANDARD_TYPE</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:39">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="X10" s="1"/>
-      <c r="Z10" s="1" t="str">
+      <c r="R10" s="1"/>
+      <c r="T10" s="1" t="str">
         <f>Gr!B15</f>
         <v xml:space="preserve"> integer</v>
       </c>
-      <c r="AA10" s="1" t="str">
+      <c r="U10" s="1" t="str">
         <f>Gr!B16</f>
         <v xml:space="preserve"> real</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:39">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AB11" s="1" t="str">
+      <c r="V11" s="1" t="str">
         <f>Gr!B17</f>
         <v xml:space="preserve"> SUBPROGRAM_DECLARATION ; SUBPROGRAM_DECLARATIONS`</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:39">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AB12" s="1" t="str">
+      <c r="V12" s="1" t="str">
         <f>Gr!B18</f>
         <v xml:space="preserve"> SUBPROGRAM_DECLARATION ; SUBPROGRAM_DECLARATIONS`</v>
       </c>
-      <c r="AC12" s="1" t="str">
+      <c r="W12" s="1" t="str">
         <f>Gr!B19</f>
         <v xml:space="preserve"> e</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:39">
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AB13" s="1" t="str">
+      <c r="V13" s="1" t="str">
         <f>Gr!B20</f>
         <v xml:space="preserve"> SUBPROGRAM_HEAD SUBPROGRAM_DECLARATION^</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:39">
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W14" s="1" t="str">
+      <c r="Q14" s="1" t="str">
         <f>Gr!B21</f>
         <v xml:space="preserve"> DECLARATIONS SUBPROGRAM_DECLARATION^^</v>
       </c>
-      <c r="AB14" s="1" t="str">
+      <c r="V14" s="1" t="str">
         <f>Gr!B22</f>
         <v xml:space="preserve"> SUBPROGRAM_DECLARATIONS COMPOUND_STATEMENT</v>
       </c>
-      <c r="AC14" s="1" t="str">
+      <c r="W14" s="1" t="str">
         <f>Gr!B23</f>
         <v xml:space="preserve"> COMPOUND_STATEMENT</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:39">
       <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AB15" s="1" t="str">
+      <c r="V15" s="1" t="str">
         <f>Gr!B24</f>
         <v xml:space="preserve"> SUBPROGRAM_DECLARATIONS COMPOUND_STATEMENT</v>
       </c>
-      <c r="AC15" s="1" t="str">
+      <c r="W15" s="1" t="str">
         <f>Gr!B25</f>
         <v xml:space="preserve"> COMPOUND_STATEMENT</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:39">
       <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="AB16" s="1" t="str">
+      <c r="V16" s="1" t="str">
         <f>Gr!B26</f>
         <v xml:space="preserve"> procedure id SUBPROGRAM_HEAD^</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:37">
       <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
@@ -1688,7 +1678,7 @@
         <v xml:space="preserve"> ;</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:37">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
@@ -1697,16 +1687,16 @@
         <v xml:space="preserve"> ( PARAMETER_LIST )</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:37">
       <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AP19" s="1" t="str">
+      <c r="AJ19" s="1" t="str">
         <f>Gr!B30</f>
         <v xml:space="preserve"> id : TYPE PARAMETER_LIST`</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:37">
       <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
@@ -1719,32 +1709,36 @@
         <v xml:space="preserve"> ; id : TYPE PARAMETER_LIST`</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:37">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AC21" s="1" t="str">
+      <c r="W21" s="1" t="str">
         <f>Gr!B33</f>
         <v xml:space="preserve"> begin COMPOUND_STATEMENT^</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:37">
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AC22" s="1" t="str">
+      <c r="W22" s="1" t="str">
         <f>Gr!B34</f>
         <v xml:space="preserve"> OPTIONAL_STATEMENTS end</v>
       </c>
-      <c r="AD22" s="1" t="str">
+      <c r="X22" s="1" t="str">
         <f>Gr!B35</f>
         <v xml:space="preserve"> end</v>
       </c>
-      <c r="AE22" s="1" t="str">
+      <c r="Y22" s="1" t="str">
         <f>Gr!B34</f>
         <v xml:space="preserve"> OPTIONAL_STATEMENTS end</v>
       </c>
-      <c r="AH22" s="1" t="str">
+      <c r="AB22" s="1" t="str">
+        <f>Gr!B34</f>
+        <v xml:space="preserve"> OPTIONAL_STATEMENTS end</v>
+      </c>
+      <c r="AD22" s="1" t="str">
         <f>Gr!B34</f>
         <v xml:space="preserve"> OPTIONAL_STATEMENTS end</v>
       </c>
@@ -1752,24 +1746,24 @@
         <f>Gr!B34</f>
         <v xml:space="preserve"> OPTIONAL_STATEMENTS end</v>
       </c>
-      <c r="AP22" s="1" t="str">
-        <f>Gr!B34</f>
-        <v xml:space="preserve"> OPTIONAL_STATEMENTS end</v>
-      </c>
-    </row>
-    <row r="23" spans="1:43">
+    </row>
+    <row r="23" spans="1:37">
       <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AC23" s="1" t="str">
+      <c r="W23" s="1" t="str">
         <f>Gr!B36</f>
         <v xml:space="preserve"> STATEMENT_LIST</v>
       </c>
-      <c r="AE23" s="1" t="str">
+      <c r="Y23" s="1" t="str">
         <f>Gr!B36</f>
         <v xml:space="preserve"> STATEMENT_LIST</v>
       </c>
-      <c r="AH23" s="1" t="str">
+      <c r="AB23" s="1" t="str">
+        <f>Gr!B36</f>
+        <v xml:space="preserve"> STATEMENT_LIST</v>
+      </c>
+      <c r="AD23" s="1" t="str">
         <f>Gr!B36</f>
         <v xml:space="preserve"> STATEMENT_LIST</v>
       </c>
@@ -1777,24 +1771,24 @@
         <f>Gr!B36</f>
         <v xml:space="preserve"> STATEMENT_LIST</v>
       </c>
-      <c r="AP23" s="1" t="str">
-        <f>Gr!B36</f>
-        <v xml:space="preserve"> STATEMENT_LIST</v>
-      </c>
-    </row>
-    <row r="24" spans="1:43">
+    </row>
+    <row r="24" spans="1:37">
       <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AC24" s="1" t="str">
+      <c r="W24" s="1" t="str">
         <f>Gr!B37</f>
         <v xml:space="preserve"> STATEMENT STATEMENT_LIST`</v>
       </c>
-      <c r="AE24" s="1" t="str">
+      <c r="Y24" s="1" t="str">
         <f>Gr!B37</f>
         <v xml:space="preserve"> STATEMENT STATEMENT_LIST`</v>
       </c>
-      <c r="AH24" s="1" t="str">
+      <c r="AB24" s="1" t="str">
+        <f>Gr!B37</f>
+        <v xml:space="preserve"> STATEMENT STATEMENT_LIST`</v>
+      </c>
+      <c r="AD24" s="1" t="str">
         <f>Gr!B37</f>
         <v xml:space="preserve"> STATEMENT STATEMENT_LIST`</v>
       </c>
@@ -1802,12 +1796,8 @@
         <f>Gr!B37</f>
         <v xml:space="preserve"> STATEMENT STATEMENT_LIST`</v>
       </c>
-      <c r="AP24" s="1" t="str">
-        <f>Gr!B37</f>
-        <v xml:space="preserve"> STATEMENT STATEMENT_LIST`</v>
-      </c>
-    </row>
-    <row r="25" spans="1:43">
+    </row>
+    <row r="25" spans="1:37">
       <c r="A25" s="3" t="s">
         <v>54</v>
       </c>
@@ -1815,38 +1805,38 @@
         <f>Gr!B38</f>
         <v xml:space="preserve"> ; STATEMENT STATEMENT_LIST`</v>
       </c>
-      <c r="AD25" s="1" t="str">
+      <c r="X25" s="1" t="str">
         <f>Gr!B39</f>
         <v xml:space="preserve"> e</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:37">
       <c r="A26" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AC26" s="1" t="str">
+      <c r="W26" s="1" t="str">
         <f>Gr!B42</f>
         <v xml:space="preserve"> COMPOUND_STATEMENT</v>
       </c>
-      <c r="AE26" s="1" t="str">
+      <c r="Y26" s="1" t="str">
         <f>Gr!B43</f>
         <v xml:space="preserve"> if EXPRESSION then STATEMENT STATEMENT^</v>
       </c>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1" t="str">
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1" t="str">
         <f>Gr!B44</f>
         <v xml:space="preserve"> while EXPRESSION do STATEMENT</v>
       </c>
-      <c r="AJ26" s="1" t="str">
+      <c r="AD26" s="1" t="str">
         <f>Gr!B41</f>
         <v xml:space="preserve"> PROCEDURE_STATEMENT</v>
       </c>
-      <c r="AP26" s="1" t="str">
+      <c r="AJ26" s="1" t="str">
         <f>Gr!B40</f>
         <v xml:space="preserve"> VARIABLE assignop EXPRESSION</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:37">
       <c r="A27" s="3" t="s">
         <v>61</v>
       </c>
@@ -1854,24 +1844,24 @@
         <f>Gr!B46</f>
         <v xml:space="preserve"> e</v>
       </c>
-      <c r="AD27" s="1" t="str">
+      <c r="X27" s="1" t="str">
         <f>Gr!B46</f>
         <v xml:space="preserve"> e</v>
       </c>
-      <c r="AG27" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="28" spans="1:43">
+      <c r="AA27" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37">
       <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AP28" s="1" t="str">
+      <c r="AJ28" s="1" t="str">
         <f>Gr!B47</f>
         <v xml:space="preserve"> id VARIABLE^</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:37">
       <c r="A29" s="3" t="s">
         <v>65</v>
       </c>
@@ -1884,16 +1874,16 @@
         <v xml:space="preserve"> e</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:37">
       <c r="A30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AJ30" s="1" t="str">
+      <c r="AD30" s="1" t="str">
         <f>Gr!B50</f>
         <v xml:space="preserve"> call id PROCEDURE_STATEMENT^</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:37">
       <c r="A31" s="3" t="s">
         <v>68</v>
       </c>
@@ -1905,16 +1895,16 @@
         <f>Gr!B52</f>
         <v xml:space="preserve"> e</v>
       </c>
-      <c r="AD31" s="1" t="str">
+      <c r="X31" s="1" t="str">
         <f>Gr!B52</f>
         <v xml:space="preserve"> e</v>
       </c>
-      <c r="AG31" s="1" t="str">
+      <c r="AA31" s="1" t="str">
         <f>Gr!B52</f>
         <v xml:space="preserve"> e</v>
       </c>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:37">
       <c r="A32" s="3" t="s">
         <v>69</v>
       </c>
@@ -1923,67 +1913,204 @@
         <v xml:space="preserve"> EXPRESSION EXPRESSION_LIST`</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="AD32" s="1"/>
-      <c r="AG32" s="1"/>
+      <c r="L32" s="1" t="str">
+        <f>Gr!B53</f>
+        <v xml:space="preserve"> EXPRESSION EXPRESSION_LIST`</v>
+      </c>
+      <c r="M32" s="1" t="str">
+        <f>Gr!B53</f>
+        <v xml:space="preserve"> EXPRESSION EXPRESSION_LIST`</v>
+      </c>
+      <c r="X32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AE32" s="1" t="str">
+        <f>Gr!B53</f>
+        <v xml:space="preserve"> EXPRESSION EXPRESSION_LIST`</v>
+      </c>
+      <c r="AJ32" s="1" t="str">
+        <f>Gr!B53</f>
+        <v xml:space="preserve"> EXPRESSION EXPRESSION_LIST`</v>
+      </c>
       <c r="AK32" s="1" t="str">
         <f>Gr!B53</f>
         <v xml:space="preserve"> EXPRESSION EXPRESSION_LIST`</v>
       </c>
-      <c r="AP32" s="1" t="str">
-        <f>Gr!B53</f>
-        <v xml:space="preserve"> EXPRESSION EXPRESSION_LIST`</v>
-      </c>
-      <c r="AQ32" s="1" t="str">
-        <f>Gr!B53</f>
-        <v xml:space="preserve"> EXPRESSION EXPRESSION_LIST`</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+    </row>
+    <row r="33" spans="1:39">
       <c r="A33" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="C33" s="1" t="str">
+        <f>Gr!B55</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f>Gr!B54</f>
+        <v xml:space="preserve"> , EXPRESSION EXPRESSION_LIST`</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39">
       <c r="A34" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" s="1" t="str">
+        <f>Gr!B56</f>
+        <v xml:space="preserve"> SIMPLE_EXPRESSION EXPRESSION^</v>
+      </c>
+      <c r="L34" s="1" t="str">
+        <f>Gr!B56</f>
+        <v xml:space="preserve"> SIMPLE_EXPRESSION EXPRESSION^</v>
+      </c>
+      <c r="M34" s="1" t="str">
+        <f>Gr!B56</f>
+        <v xml:space="preserve"> SIMPLE_EXPRESSION EXPRESSION^</v>
+      </c>
+      <c r="AE34" s="1" t="str">
+        <f>Gr!B56</f>
+        <v xml:space="preserve"> SIMPLE_EXPRESSION EXPRESSION^</v>
+      </c>
+      <c r="AJ34" s="1" t="str">
+        <f>Gr!B56</f>
+        <v xml:space="preserve"> SIMPLE_EXPRESSION EXPRESSION^</v>
+      </c>
+      <c r="AK34" s="1" t="str">
+        <f>Gr!B56</f>
+        <v xml:space="preserve"> SIMPLE_EXPRESSION EXPRESSION^</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39">
       <c r="A35" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="C35" s="1" t="str">
+        <f>Gr!B58</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f>Gr!B58</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <f>Gr!B58</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="X35" s="1" t="str">
+        <f>Gr!B58</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="Z35" s="1" t="str">
+        <f>Gr!B58</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="AA35" s="1" t="str">
+        <f>Gr!B58</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="AC35" s="1" t="str">
+        <f>Gr!B58</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="AL35" s="1" t="str">
+        <f>Gr!B57</f>
+        <v xml:space="preserve"> relop SIMPLE_EXPRESSION</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39">
       <c r="A36" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" s="1" t="str">
+        <f>Gr!B59</f>
+        <v xml:space="preserve"> TERM SIMPLE_EXPRESSION`</v>
+      </c>
+      <c r="L36" s="1" t="str">
+        <f>Gr!B60</f>
+        <v xml:space="preserve"> SIGN TERM SIMPLE_EXPRESSION`</v>
+      </c>
+      <c r="M36" s="1" t="str">
+        <f>Gr!B60</f>
+        <v xml:space="preserve"> SIGN TERM SIMPLE_EXPRESSION`</v>
+      </c>
+      <c r="AE36" s="1" t="str">
+        <f>Gr!B59</f>
+        <v xml:space="preserve"> TERM SIMPLE_EXPRESSION`</v>
+      </c>
+      <c r="AJ36" s="1" t="str">
+        <f>Gr!B59</f>
+        <v xml:space="preserve"> TERM SIMPLE_EXPRESSION`</v>
+      </c>
+      <c r="AK36" s="1" t="str">
+        <f>Gr!B59</f>
+        <v xml:space="preserve"> TERM SIMPLE_EXPRESSION`</v>
+      </c>
+      <c r="AM36" s="4"/>
+    </row>
+    <row r="37" spans="1:39">
       <c r="A37" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="C37" s="1" t="str">
+        <f>Gr!B62</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <f>Gr!B62</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <f>Gr!B62</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="J37" s="1" t="str">
+        <f>Gr!B62</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="X37" s="1" t="str">
+        <f>Gr!B62</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="Z37" s="1" t="str">
+        <f>Gr!B62</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="AA37" s="1" t="str">
+        <f>Gr!B62</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="AC37" s="1" t="str">
+        <f>Gr!B62</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="AL37" s="1" t="str">
+        <f>Gr!B62</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="AM37" s="1" t="str">
+        <f>Gr!B61</f>
+        <v xml:space="preserve"> addop TERM SIMPLE_EXPRESSION`</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39">
       <c r="A38" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:39">
       <c r="A39" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:39">
       <c r="A40" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:39">
       <c r="A41" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:39">
       <c r="A42" s="3" t="s">
         <v>78</v>
       </c>
@@ -2008,8 +2135,8 @@
     <sheetView topLeftCell="A43" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="F57" sqref="F57"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="1">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="B1" workbookViewId="1">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3299,8 +3426,8 @@
     <sheetView topLeftCell="A15" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3387,7 +3514,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3398,7 +3525,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3804,586 +3931,586 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ParseTable.xlsx
+++ b/doc/ParseTable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="39700" windowHeight="17140" tabRatio="500"/>
-    <workbookView xWindow="39820" yWindow="-20" windowWidth="11380" windowHeight="31540" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="39820" yWindow="-20" windowWidth="11380" windowHeight="31540" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ParseTable" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="218">
   <si>
     <t>PROGRAM</t>
   </si>
@@ -411,18 +411,6 @@
   </si>
   <si>
     <t>do</t>
-  </si>
-  <si>
-    <t>or</t>
-  </si>
-  <si>
-    <t>div</t>
-  </si>
-  <si>
-    <t>mod</t>
-  </si>
-  <si>
-    <t>and</t>
   </si>
   <si>
     <t>.</t>
@@ -1313,13 +1301,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM42"/>
+  <dimension ref="A1:AJ42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomRight" activeCell="M42" sqref="M42"/>
     </sheetView>
     <sheetView topLeftCell="A2" workbookViewId="1">
       <selection activeCell="A3" sqref="A3"/>
@@ -1352,15 +1340,14 @@
     <col min="28" max="28" width="29.5" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="10.83203125" style="4"/>
     <col min="30" max="30" width="28.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="30.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="10.83203125" style="4"/>
-    <col min="36" max="36" width="30.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="30.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:36">
       <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
@@ -1371,37 +1358,37 @@
         <v>6</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>57</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>2</v>
@@ -1452,31 +1439,22 @@
         <v>87</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1485,7 +1463,7 @@
         <v xml:space="preserve"> program id ( IDENTIFIER_LIST ) ; PROGRAM^</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:36">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1502,7 +1480,7 @@
         <v xml:space="preserve"> COMPOUND_STATEMENT .</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:36">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1515,16 +1493,16 @@
         <v xml:space="preserve"> COMPOUND_STATEMENT .</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:36">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AJ5" s="4" t="str">
+      <c r="AF5" s="4" t="str">
         <f>Gr!B7</f>
         <v xml:space="preserve"> id IDENTIFIER_LIST`</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:36">
       <c r="A6" s="3" t="s">
         <v>100</v>
       </c>
@@ -1537,7 +1515,7 @@
         <v xml:space="preserve"> , id IDENTIFIER_LIST`</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:36">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1546,7 +1524,7 @@
         <v xml:space="preserve"> var id : TYPE ; DECLARATIONS`</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:36">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1563,7 +1541,7 @@
         <v xml:space="preserve"> e</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:36">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1580,7 +1558,7 @@
         <v xml:space="preserve"> STANDARD_TYPE</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:36">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -1594,7 +1572,7 @@
         <v xml:space="preserve"> real</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:36">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1603,7 +1581,7 @@
         <v xml:space="preserve"> SUBPROGRAM_DECLARATION ; SUBPROGRAM_DECLARATIONS`</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:36">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1616,7 +1594,7 @@
         <v xml:space="preserve"> e</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:36">
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
@@ -1625,7 +1603,7 @@
         <v xml:space="preserve"> SUBPROGRAM_HEAD SUBPROGRAM_DECLARATION^</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:36">
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1642,7 +1620,7 @@
         <v xml:space="preserve"> COMPOUND_STATEMENT</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:36">
       <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
@@ -1655,7 +1633,7 @@
         <v xml:space="preserve"> COMPOUND_STATEMENT</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:36">
       <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
@@ -1665,7 +1643,7 @@
         <v xml:space="preserve"> procedure id SUBPROGRAM_HEAD^</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:33">
       <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
@@ -1678,7 +1656,7 @@
         <v xml:space="preserve"> ;</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:33">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
@@ -1687,16 +1665,16 @@
         <v xml:space="preserve"> ( PARAMETER_LIST )</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:33">
       <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AJ19" s="1" t="str">
+      <c r="AF19" s="1" t="str">
         <f>Gr!B30</f>
         <v xml:space="preserve"> id : TYPE PARAMETER_LIST`</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:33">
       <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
@@ -1709,7 +1687,7 @@
         <v xml:space="preserve"> ; id : TYPE PARAMETER_LIST`</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:33">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
@@ -1718,7 +1696,7 @@
         <v xml:space="preserve"> begin COMPOUND_STATEMENT^</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:33">
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
@@ -1742,12 +1720,12 @@
         <f>Gr!B34</f>
         <v xml:space="preserve"> OPTIONAL_STATEMENTS end</v>
       </c>
-      <c r="AJ22" s="1" t="str">
+      <c r="AF22" s="1" t="str">
         <f>Gr!B34</f>
         <v xml:space="preserve"> OPTIONAL_STATEMENTS end</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:33">
       <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
@@ -1767,12 +1745,12 @@
         <f>Gr!B36</f>
         <v xml:space="preserve"> STATEMENT_LIST</v>
       </c>
-      <c r="AJ23" s="1" t="str">
+      <c r="AF23" s="1" t="str">
         <f>Gr!B36</f>
         <v xml:space="preserve"> STATEMENT_LIST</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:33">
       <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
@@ -1792,12 +1770,12 @@
         <f>Gr!B37</f>
         <v xml:space="preserve"> STATEMENT STATEMENT_LIST`</v>
       </c>
-      <c r="AJ24" s="1" t="str">
+      <c r="AF24" s="1" t="str">
         <f>Gr!B37</f>
         <v xml:space="preserve"> STATEMENT STATEMENT_LIST`</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:33">
       <c r="A25" s="3" t="s">
         <v>54</v>
       </c>
@@ -1810,7 +1788,7 @@
         <v xml:space="preserve"> e</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:33">
       <c r="A26" s="3" t="s">
         <v>53</v>
       </c>
@@ -1831,12 +1809,12 @@
         <f>Gr!B41</f>
         <v xml:space="preserve"> PROCEDURE_STATEMENT</v>
       </c>
-      <c r="AJ26" s="1" t="str">
+      <c r="AF26" s="1" t="str">
         <f>Gr!B40</f>
         <v xml:space="preserve"> VARIABLE assignop EXPRESSION</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:33">
       <c r="A27" s="3" t="s">
         <v>61</v>
       </c>
@@ -1849,19 +1827,19 @@
         <v xml:space="preserve"> e</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="28" spans="1:37">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33">
       <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AJ28" s="1" t="str">
+      <c r="AF28" s="1" t="str">
         <f>Gr!B47</f>
         <v xml:space="preserve"> id VARIABLE^</v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:33">
       <c r="A29" s="3" t="s">
         <v>65</v>
       </c>
@@ -1874,7 +1852,7 @@
         <v xml:space="preserve"> e</v>
       </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:33">
       <c r="A30" s="3" t="s">
         <v>59</v>
       </c>
@@ -1883,7 +1861,7 @@
         <v xml:space="preserve"> call id PROCEDURE_STATEMENT^</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:33">
       <c r="A31" s="3" t="s">
         <v>68</v>
       </c>
@@ -1904,7 +1882,7 @@
         <v xml:space="preserve"> e</v>
       </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:33">
       <c r="A32" s="3" t="s">
         <v>69</v>
       </c>
@@ -1927,16 +1905,16 @@
         <f>Gr!B53</f>
         <v xml:space="preserve"> EXPRESSION EXPRESSION_LIST`</v>
       </c>
-      <c r="AJ32" s="1" t="str">
+      <c r="AF32" s="1" t="str">
         <f>Gr!B53</f>
         <v xml:space="preserve"> EXPRESSION EXPRESSION_LIST`</v>
       </c>
-      <c r="AK32" s="1" t="str">
+      <c r="AG32" s="1" t="str">
         <f>Gr!B53</f>
         <v xml:space="preserve"> EXPRESSION EXPRESSION_LIST`</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:36">
       <c r="A33" s="3" t="s">
         <v>71</v>
       </c>
@@ -1949,7 +1927,7 @@
         <v xml:space="preserve"> , EXPRESSION EXPRESSION_LIST`</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:36">
       <c r="A34" s="3" t="s">
         <v>58</v>
       </c>
@@ -1969,16 +1947,16 @@
         <f>Gr!B56</f>
         <v xml:space="preserve"> SIMPLE_EXPRESSION EXPRESSION^</v>
       </c>
-      <c r="AJ34" s="1" t="str">
+      <c r="AF34" s="1" t="str">
         <f>Gr!B56</f>
         <v xml:space="preserve"> SIMPLE_EXPRESSION EXPRESSION^</v>
       </c>
-      <c r="AK34" s="1" t="str">
+      <c r="AG34" s="1" t="str">
         <f>Gr!B56</f>
         <v xml:space="preserve"> SIMPLE_EXPRESSION EXPRESSION^</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:36">
       <c r="A35" s="3" t="s">
         <v>74</v>
       </c>
@@ -1994,6 +1972,10 @@
         <f>Gr!B58</f>
         <v xml:space="preserve"> e</v>
       </c>
+      <c r="J35" s="1" t="str">
+        <f>Gr!B58</f>
+        <v xml:space="preserve"> e</v>
+      </c>
       <c r="X35" s="1" t="str">
         <f>Gr!B58</f>
         <v xml:space="preserve"> e</v>
@@ -2010,12 +1992,12 @@
         <f>Gr!B58</f>
         <v xml:space="preserve"> e</v>
       </c>
-      <c r="AL35" s="1" t="str">
+      <c r="AH35" s="1" t="str">
         <f>Gr!B57</f>
         <v xml:space="preserve"> relop SIMPLE_EXPRESSION</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:36">
       <c r="A36" s="3" t="s">
         <v>73</v>
       </c>
@@ -2035,17 +2017,17 @@
         <f>Gr!B59</f>
         <v xml:space="preserve"> TERM SIMPLE_EXPRESSION`</v>
       </c>
-      <c r="AJ36" s="1" t="str">
+      <c r="AF36" s="1" t="str">
         <f>Gr!B59</f>
         <v xml:space="preserve"> TERM SIMPLE_EXPRESSION`</v>
       </c>
-      <c r="AK36" s="1" t="str">
+      <c r="AG36" s="1" t="str">
         <f>Gr!B59</f>
         <v xml:space="preserve"> TERM SIMPLE_EXPRESSION`</v>
       </c>
-      <c r="AM36" s="4"/>
-    </row>
-    <row r="37" spans="1:39">
+      <c r="AI36" s="4"/>
+    </row>
+    <row r="37" spans="1:36">
       <c r="A37" s="3" t="s">
         <v>79</v>
       </c>
@@ -2081,38 +2063,171 @@
         <f>Gr!B62</f>
         <v xml:space="preserve"> e</v>
       </c>
-      <c r="AL37" s="1" t="str">
+      <c r="AH37" s="1" t="str">
         <f>Gr!B62</f>
         <v xml:space="preserve"> e</v>
       </c>
-      <c r="AM37" s="1" t="str">
+      <c r="AI37" s="1" t="str">
         <f>Gr!B61</f>
         <v xml:space="preserve"> addop TERM SIMPLE_EXPRESSION`</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:36">
       <c r="A38" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="39" spans="1:39">
+      <c r="B38" s="1" t="str">
+        <f>Gr!B63</f>
+        <v xml:space="preserve"> FACTOR TERM`</v>
+      </c>
+      <c r="AE38" s="1" t="str">
+        <f>Gr!B63</f>
+        <v xml:space="preserve"> FACTOR TERM`</v>
+      </c>
+      <c r="AF38" s="1" t="str">
+        <f>Gr!B63</f>
+        <v xml:space="preserve"> FACTOR TERM`</v>
+      </c>
+      <c r="AG38" s="1" t="str">
+        <f>Gr!B63</f>
+        <v xml:space="preserve"> FACTOR TERM`</v>
+      </c>
+      <c r="AJ38" s="1"/>
+    </row>
+    <row r="39" spans="1:36">
       <c r="A39" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="40" spans="1:39">
+      <c r="C39" s="1" t="str">
+        <f>Gr!B65</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <f>Gr!B65</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="F39" s="1" t="str">
+        <f>Gr!B65</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="J39" s="1" t="str">
+        <f>Gr!B65</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="X39" s="1" t="str">
+        <f>Gr!B65</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="Z39" s="1" t="str">
+        <f>Gr!B65</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="AA39" s="1" t="str">
+        <f>Gr!B65</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="AC39" s="1" t="str">
+        <f>Gr!B65</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="AH39" s="1" t="str">
+        <f>Gr!B65</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="AI39" s="1" t="str">
+        <f>Gr!B65</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="AJ39" s="1" t="str">
+        <f>Gr!B64</f>
+        <v xml:space="preserve"> mulop FACTOR TERM`</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36">
       <c r="A40" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" spans="1:39">
+      <c r="B40" s="1" t="str">
+        <f>Gr!B68</f>
+        <v xml:space="preserve"> ( EXPRESSION )</v>
+      </c>
+      <c r="AE40" s="1" t="str">
+        <f>Gr!B69</f>
+        <v xml:space="preserve"> not FACTOR</v>
+      </c>
+      <c r="AF40" s="1" t="str">
+        <f>Gr!B66</f>
+        <v xml:space="preserve"> id FACTOR^</v>
+      </c>
+      <c r="AG40" s="1" t="str">
+        <f>Gr!B67</f>
+        <v xml:space="preserve"> num</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36">
       <c r="A41" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="42" spans="1:39">
+      <c r="C41" s="1" t="str">
+        <f>Gr!B71</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <f>Gr!B71</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="F41" s="1" t="str">
+        <f>Gr!B71</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="H41" s="1" t="str">
+        <f>Gr!B70</f>
+        <v xml:space="preserve"> [ EXPRESSION ]</v>
+      </c>
+      <c r="J41" s="1" t="str">
+        <f>Gr!B71</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="X41" s="1" t="str">
+        <f>Gr!B71</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="Z41" s="1" t="str">
+        <f>Gr!B71</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="AA41" s="1" t="str">
+        <f>Gr!B71</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="AC41" s="1" t="str">
+        <f>Gr!B71</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="AH41" s="1" t="str">
+        <f>Gr!B71</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="AI41" s="1" t="str">
+        <f>Gr!B71</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+      <c r="AJ41" s="1" t="str">
+        <f>Gr!B71</f>
+        <v xml:space="preserve"> e</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36">
       <c r="A42" s="3" t="s">
         <v>78</v>
+      </c>
+      <c r="L42" s="1" t="str">
+        <f>Gr!B72</f>
+        <v xml:space="preserve"> +</v>
+      </c>
+      <c r="M42" s="1" t="str">
+        <f>Gr!B73</f>
+        <v xml:space="preserve"> -</v>
       </c>
     </row>
   </sheetData>
@@ -2135,8 +2250,8 @@
     <sheetView topLeftCell="A43" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="F57" sqref="F57"/>
     </sheetView>
-    <sheetView topLeftCell="B1" workbookViewId="1">
-      <selection activeCell="J63" sqref="J63"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="1">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3426,8 +3541,8 @@
     <sheetView topLeftCell="A15" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3514,7 +3629,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3525,7 +3640,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3931,586 +4046,586 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ParseTable.xlsx
+++ b/doc/ParseTable.xlsx
@@ -4,8 +4,8 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="39700" windowHeight="17140" tabRatio="500"/>
-    <workbookView xWindow="39820" yWindow="-20" windowWidth="11380" windowHeight="31540" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="40380" yWindow="-20" windowWidth="10820" windowHeight="31540" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="40180" windowHeight="19760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ParseTable" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="217">
   <si>
     <t>PROGRAM</t>
   </si>
@@ -717,9 +717,6 @@
   </si>
   <si>
     <t xml:space="preserve"> not FACTOR</t>
-  </si>
-  <si>
-    <t>=Gr!B45 +"|" + =Gr!B46</t>
   </si>
 </sst>
 </file>
@@ -1303,14 +1300,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="K11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="M42" sqref="M42"/>
     </sheetView>
-    <sheetView topLeftCell="A2" workbookViewId="1">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AA27" sqref="AA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1826,8 +1826,9 @@
         <f>Gr!B46</f>
         <v xml:space="preserve"> e</v>
       </c>
-      <c r="AA27" s="1" t="s">
-        <v>217</v>
+      <c r="AA27" s="1" t="str">
+        <f>Gr!B45</f>
+        <v xml:space="preserve"> else STATEMENT</v>
       </c>
     </row>
     <row r="28" spans="1:33">
@@ -2247,11 +2248,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="1">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView topLeftCell="B1" workbookViewId="1">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3538,8 +3539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
     <sheetView workbookViewId="1">
       <selection activeCell="C35" sqref="C35"/>

--- a/doc/ParseTable.xlsx
+++ b/doc/ParseTable.xlsx
@@ -4,8 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40380" yWindow="-20" windowWidth="10820" windowHeight="31540" tabRatio="500" firstSheet="1" activeTab="1"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40180" windowHeight="19760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-440" windowWidth="51200" windowHeight="32000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ParseTable" sheetId="1" r:id="rId1"/>
@@ -587,9 +586,6 @@
     <t xml:space="preserve"> var id : TYPE ; DECLARATIONS`</t>
   </si>
   <si>
-    <t xml:space="preserve"> var id : TYPE ;</t>
-  </si>
-  <si>
     <t xml:space="preserve"> STANDARD_TYPE</t>
   </si>
   <si>
@@ -717,6 +713,9 @@
   </si>
   <si>
     <t xml:space="preserve"> not FACTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> var id : TYPE ;  DECLARATIONS`</t>
   </si>
 </sst>
 </file>
@@ -1301,16 +1300,10 @@
   <dimension ref="A1:AJ42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M42" sqref="M42"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA27" sqref="AA27"/>
+      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1530,7 +1523,7 @@
       </c>
       <c r="Q8" s="1" t="str">
         <f>Gr!B11</f>
-        <v xml:space="preserve"> var id : TYPE ;</v>
+        <v xml:space="preserve"> var id : TYPE ;  DECLARATIONS`</v>
       </c>
       <c r="V8" s="1" t="str">
         <f>Gr!B12</f>
@@ -2237,7 +2230,6 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -2248,11 +2240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-    <sheetView topLeftCell="B1" workbookViewId="1">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3529,7 +3518,6 @@
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
@@ -3540,10 +3528,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4024,7 +4009,6 @@
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
@@ -4034,10 +4018,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -4130,7 +4113,7 @@
         <v>130</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4146,7 +4129,7 @@
         <v>131</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4154,7 +4137,7 @@
         <v>131</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4162,7 +4145,7 @@
         <v>132</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4170,7 +4153,7 @@
         <v>132</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4178,7 +4161,7 @@
         <v>133</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4186,7 +4169,7 @@
         <v>134</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4202,7 +4185,7 @@
         <v>135</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4210,7 +4193,7 @@
         <v>136</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4218,7 +4201,7 @@
         <v>136</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4226,7 +4209,7 @@
         <v>136</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4234,7 +4217,7 @@
         <v>137</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4242,7 +4225,7 @@
         <v>137</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4250,7 +4233,7 @@
         <v>138</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4258,7 +4241,7 @@
         <v>139</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4266,7 +4249,7 @@
         <v>139</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4274,7 +4257,7 @@
         <v>140</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4282,7 +4265,7 @@
         <v>141</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4290,7 +4273,7 @@
         <v>142</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4306,7 +4289,7 @@
         <v>143</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4314,7 +4297,7 @@
         <v>144</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4322,7 +4305,7 @@
         <v>144</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4330,7 +4313,7 @@
         <v>145</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4338,7 +4321,7 @@
         <v>146</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4346,7 +4329,7 @@
         <v>147</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4362,7 +4345,7 @@
         <v>148</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4370,7 +4353,7 @@
         <v>148</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4378,7 +4361,7 @@
         <v>148</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4386,7 +4369,7 @@
         <v>148</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4394,7 +4377,7 @@
         <v>148</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4402,7 +4385,7 @@
         <v>149</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4418,7 +4401,7 @@
         <v>150</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -4426,7 +4409,7 @@
         <v>151</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4442,7 +4425,7 @@
         <v>152</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4450,7 +4433,7 @@
         <v>153</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -4466,7 +4449,7 @@
         <v>154</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -4474,7 +4457,7 @@
         <v>155</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4490,7 +4473,7 @@
         <v>156</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -4498,7 +4481,7 @@
         <v>157</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4514,7 +4497,7 @@
         <v>158</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -4522,7 +4505,7 @@
         <v>158</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -4530,7 +4513,7 @@
         <v>159</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -4546,7 +4529,7 @@
         <v>160</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -4554,7 +4537,7 @@
         <v>161</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4570,7 +4553,7 @@
         <v>162</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -4578,7 +4561,7 @@
         <v>162</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4586,7 +4569,7 @@
         <v>162</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -4594,7 +4577,7 @@
         <v>162</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -4602,7 +4585,7 @@
         <v>163</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -4634,7 +4617,6 @@
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>

--- a/doc/ParseTable.xlsx
+++ b/doc/ParseTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="51200" windowHeight="32000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ParseTable" sheetId="1" r:id="rId1"/>
@@ -1300,10 +1300,10 @@
   <dimension ref="A1:AJ42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/doc/ParseTable.xlsx
+++ b/doc/ParseTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="31480" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ParseTable" sheetId="1" r:id="rId1"/>
@@ -786,8 +786,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="79">
+  <cellStyleXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -877,7 +905,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="79">
+  <cellStyles count="107">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -917,6 +945,20 @@
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -956,6 +998,20 @@
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2241,16 +2297,16 @@
   <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection sqref="A1:E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
     <col min="6" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
@@ -3527,15 +3583,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection sqref="A1:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="40.1640625" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
@@ -4018,7 +4074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/doc/ParseTable.xlsx
+++ b/doc/ParseTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="31480" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="31480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ParseTable" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <definedName name="_2014PascalGrammarSubset_SpecChange_Numbered_NullProdRemoved_LeftRecurRemoved_LeftFactored" localSheetId="1">firsts!$A$2:$J$74</definedName>
     <definedName name="_2014PascalGrammarSubset_SpecChange_Numbered_NullProdRemoved_LeftRecurRemoved_LeftFactored" localSheetId="2">Follows!$A$2:$G$42</definedName>
     <definedName name="copyForImport" localSheetId="3">Gr!$A$1:$B$73</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">ParseTable!$A:$A,ParseTable!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -1355,7 +1356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2282,11 +2283,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <printOptions headings="1" gridLines="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="60" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="60"/>
     </ext>
   </extLst>
 </worksheet>
@@ -3583,7 +3585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection sqref="A1:C42"/>
     </sheetView>
   </sheetViews>
